--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -57,15 +57,6 @@
     <t>http://cdn.tgdd.vn/Products/Images/44/60253/Kit/Sony-Vaio-Fit-SVF14217SG-bo-ban-hang-800x496-chuan.jpg</t>
   </si>
   <si>
-    <t>Acer Aspire P3 171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF14217SG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF1421QSG </t>
-  </si>
-  <si>
     <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.jpg</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Intel Core 44444444</t>
   </si>
   <si>
-    <t>Intel Core 55555555</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel Core 6666666 </t>
   </si>
   <si>
@@ -105,22 +93,49 @@
     <t>6666 x 555</t>
   </si>
   <si>
-    <t>Dell Inspiron 1111</t>
-  </si>
-  <si>
-    <t>Intel Core 9999999</t>
-  </si>
-  <si>
-    <t>NVIDIA 99999999999</t>
-  </si>
-  <si>
-    <t>6546X432423</t>
-  </si>
-  <si>
     <t>555x 555</t>
   </si>
   <si>
-    <t>Asus P550Hm</t>
+    <t>Intel 5555555556555</t>
+  </si>
+  <si>
+    <t>NVIDIA 99699999922</t>
+  </si>
+  <si>
+    <t>6556X432423</t>
+  </si>
+  <si>
+    <t>Intel Core 6666667</t>
+  </si>
+  <si>
+    <t>Intel Core 6666668</t>
+  </si>
+  <si>
+    <t>fffffffffft</t>
+  </si>
+  <si>
+    <t>ffffffffffj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sony Vaio 5654645645</t>
+  </si>
+  <si>
+    <t>Intel Core 55ta555</t>
+  </si>
+  <si>
+    <t>Intel Core 9999992</t>
+  </si>
+  <si>
+    <t>Intel Core 55555557</t>
+  </si>
+  <si>
+    <t>fdàdssfdf</t>
+  </si>
+  <si>
+    <t>fdàdssfd1</t>
+  </si>
+  <si>
+    <t>abcdefff</t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,22 +544,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>666</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -555,25 +570,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>555</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,22 +596,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
       <c r="F5">
         <v>789</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -607,22 +622,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
       <c r="F6">
         <v>999</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -633,22 +648,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -659,10 +674,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -675,8 +690,26 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -690,9 +723,10 @@
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C7" r:id="rId5"/>
     <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -129,13 +129,13 @@
     <t>Intel Core 55555557</t>
   </si>
   <si>
-    <t>fdàdssfdf</t>
-  </si>
-  <si>
     <t>fdàdssfd1</t>
   </si>
   <si>
-    <t>abcdefff</t>
+    <t>bbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>cccccccccccchcccccccccccccccccccccccccc</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="9555" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="9555" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -45,36 +45,9 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/68094/Kit/Asus-P550L-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/57994/Kit/Dell-Inspiron-3521-33214G50-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/61374/Kit/sony-vaio-fit-svf1421qsg-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/60253/Kit/Sony-Vaio-Fit-SVF14217SG-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
     <t>1368 x 768</t>
   </si>
   <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.abc</t>
-  </si>
-  <si>
-    <t>Intel Core 33333333</t>
-  </si>
-  <si>
-    <t>Intel Core 44444444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core 6666666 </t>
-  </si>
-  <si>
     <t>Intel 333333333333</t>
   </si>
   <si>
@@ -99,15 +72,9 @@
     <t>Intel 5555555556555</t>
   </si>
   <si>
-    <t>NVIDIA 99699999922</t>
-  </si>
-  <si>
     <t>6556X432423</t>
   </si>
   <si>
-    <t>Intel Core 6666667</t>
-  </si>
-  <si>
     <t>Intel Core 6666668</t>
   </si>
   <si>
@@ -120,22 +87,49 @@
     <t xml:space="preserve"> Sony Vaio 5654645645</t>
   </si>
   <si>
-    <t>Intel Core 55ta555</t>
-  </si>
-  <si>
-    <t>Intel Core 9999992</t>
-  </si>
-  <si>
-    <t>Intel Core 55555557</t>
+    <t>fdàdssfdf</t>
   </si>
   <si>
     <t>fdàdssfd1</t>
   </si>
   <si>
-    <t>bbbbbbbbbb</t>
-  </si>
-  <si>
-    <t>cccccccccccchcccccccccccccccccccccccccc</t>
+    <t>NVIDIA 99699999923</t>
+  </si>
+  <si>
+    <t>SangPH33</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://www.thegioididong.com/</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core zzz3</t>
+  </si>
+  <si>
+    <t>Intel Core dfàda</t>
+  </si>
+  <si>
+    <t>Intel Corejjjjfsdh</t>
+  </si>
+  <si>
+    <t>Intel Core hsdfhs33</t>
+  </si>
+  <si>
+    <t>Intel Core gfdgs22</t>
+  </si>
+  <si>
+    <t>Intel Core hgfh11</t>
+  </si>
+  <si>
+    <t>Intel Core xxx555</t>
   </si>
 </sst>
 </file>
@@ -489,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +497,7 @@
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -513,7 +507,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -538,146 +532,185 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
+      <c r="I3">
+        <v>1111</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>555</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
+      <c r="I4">
+        <v>111111</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>789</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
+      <c r="I5">
+        <v>1111111</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>999</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>111111</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>111111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -685,31 +718,43 @@
       <c r="H8">
         <v>6</v>
       </c>
+      <c r="I8">
+        <v>11111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1111</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -719,14 +764,17 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="J5" r:id="rId5"/>
+    <hyperlink ref="J6" r:id="rId6"/>
+    <hyperlink ref="J7" r:id="rId7"/>
+    <hyperlink ref="J8" r:id="rId8"/>
+    <hyperlink ref="J9" r:id="rId9"/>
+    <hyperlink ref="C5:C9" r:id="rId10" display="http://laptopno1.com/images/Products/129875295602206250.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -78,27 +78,12 @@
     <t>Intel Core 6666668</t>
   </si>
   <si>
-    <t>fffffffffft</t>
-  </si>
-  <si>
-    <t>ffffffffffj</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sony Vaio 5654645645</t>
   </si>
   <si>
-    <t>fdàdssfdf</t>
-  </si>
-  <si>
-    <t>fdàdssfd1</t>
-  </si>
-  <si>
     <t>NVIDIA 99699999923</t>
   </si>
   <si>
-    <t>SangPH33</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -111,25 +96,40 @@
     <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
   </si>
   <si>
-    <t>Intel Core zzz3</t>
-  </si>
-  <si>
-    <t>Intel Core dfàda</t>
-  </si>
-  <si>
-    <t>Intel Corejjjjfsdh</t>
-  </si>
-  <si>
-    <t>Intel Core hsdfhs33</t>
-  </si>
-  <si>
-    <t>Intel Core gfdgs22</t>
-  </si>
-  <si>
-    <t>Intel Core hgfh11</t>
-  </si>
-  <si>
-    <t>Intel Core xxx555</t>
+    <t>Intel Core vvvvv1</t>
+  </si>
+  <si>
+    <t>Intel Core vvvvv2</t>
+  </si>
+  <si>
+    <t>Intel Core bbbbb</t>
+  </si>
+  <si>
+    <t>Intel Core aaaaaa</t>
+  </si>
+  <si>
+    <t>Intel Core cccccc</t>
+  </si>
+  <si>
+    <t>Intel Core cccccc1</t>
+  </si>
+  <si>
+    <t>Intel Corddđ</t>
+  </si>
+  <si>
+    <t>fhggggggggdsàdâff</t>
+  </si>
+  <si>
+    <t>fdfsggfdsgsfdgffffffff</t>
+  </si>
+  <si>
+    <t>SangPH444dd</t>
+  </si>
+  <si>
+    <t>SangPH444dx</t>
+  </si>
+  <si>
+    <t>dddddddddddddddddd</t>
   </si>
 </sst>
 </file>
@@ -174,12 +174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +495,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -533,10 +530,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -544,16 +541,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>112</v>
@@ -568,7 +565,7 @@
         <v>1111</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -576,13 +573,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -600,7 +597,7 @@
         <v>111111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -608,13 +605,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -632,7 +629,7 @@
         <v>1111111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -640,13 +637,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -664,7 +661,7 @@
         <v>111111</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -672,13 +669,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -696,7 +693,7 @@
         <v>111111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -722,7 +719,7 @@
         <v>11111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -730,13 +727,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -754,7 +751,7 @@
         <v>1111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -45,45 +45,15 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>1368 x 768</t>
-  </si>
-  <si>
-    <t>Intel 333333333333</t>
-  </si>
-  <si>
-    <t>NVIDIA 44444444444444</t>
-  </si>
-  <si>
-    <t>Intel 5555555555555</t>
-  </si>
-  <si>
     <t>8888 x 333</t>
   </si>
   <si>
-    <t>7777 x 444</t>
-  </si>
-  <si>
-    <t>6666 x 555</t>
-  </si>
-  <si>
     <t>555x 555</t>
   </si>
   <si>
     <t>Intel 5555555556555</t>
   </si>
   <si>
-    <t>6556X432423</t>
-  </si>
-  <si>
-    <t>Intel Core 6666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio 5654645645</t>
-  </si>
-  <si>
-    <t>NVIDIA 99699999923</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -96,40 +66,37 @@
     <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
   </si>
   <si>
-    <t>Intel Core vvvvv1</t>
-  </si>
-  <si>
     <t>Intel Core vvvvv2</t>
   </si>
   <si>
-    <t>Intel Core bbbbb</t>
-  </si>
-  <si>
-    <t>Intel Core aaaaaa</t>
-  </si>
-  <si>
-    <t>Intel Core cccccc</t>
-  </si>
-  <si>
-    <t>Intel Core cccccc1</t>
-  </si>
-  <si>
-    <t>Intel Corddđ</t>
-  </si>
-  <si>
-    <t>fhggggggggdsàdâff</t>
-  </si>
-  <si>
-    <t>fdfsggfdsgsfdgffffffff</t>
-  </si>
-  <si>
-    <t>SangPH444dd</t>
-  </si>
-  <si>
-    <t>SangPH444dx</t>
-  </si>
-  <si>
-    <t>dddddddddddddddddd</t>
+    <t>SangPH444hhhh12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel 11119</t>
+  </si>
+  <si>
+    <t>VGA 11119</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>HDD, 500 GB</t>
+  </si>
+  <si>
+    <t>SonyVaioVGNFW480J</t>
+  </si>
+  <si>
+    <t>intel Centrino 2</t>
+  </si>
+  <si>
+    <t>ATI Radeon 512</t>
+  </si>
+  <si>
+    <t>1600 x900</t>
+  </si>
+  <si>
+    <t>http://www.laptopgiahuy.com/ipad-48/1696/apple---ipad-mini-32gb-wifi.html</t>
   </si>
 </sst>
 </file>
@@ -480,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -541,31 +508,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>170000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>1111</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -573,22 +540,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>555</v>
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -597,7 +564,7 @@
         <v>111111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -605,22 +572,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>789</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -629,129 +596,7 @@
         <v>1111111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>999</v>
-      </c>
-      <c r="G6" t="s">
         <v>14</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>111111</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>111111</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>11111</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>500</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>1111</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -764,14 +609,10 @@
     <hyperlink ref="J3" r:id="rId3"/>
     <hyperlink ref="J4" r:id="rId4"/>
     <hyperlink ref="J5" r:id="rId5"/>
-    <hyperlink ref="J6" r:id="rId6"/>
-    <hyperlink ref="J7" r:id="rId7"/>
-    <hyperlink ref="J8" r:id="rId8"/>
-    <hyperlink ref="J9" r:id="rId9"/>
-    <hyperlink ref="C5:C9" r:id="rId10" display="http://laptopno1.com/images/Products/129875295602206250.jpg"/>
+    <hyperlink ref="C5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -69,24 +69,9 @@
     <t>Intel Core vvvvv2</t>
   </si>
   <si>
-    <t>SangPH444hhhh12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel 11119</t>
-  </si>
-  <si>
-    <t>VGA 11119</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>HDD, 500 GB</t>
   </si>
   <si>
-    <t>SonyVaioVGNFW480J</t>
-  </si>
-  <si>
     <t>intel Centrino 2</t>
   </si>
   <si>
@@ -97,6 +82,21 @@
   </si>
   <si>
     <t>http://www.laptopgiahuy.com/ipad-48/1696/apple---ipad-mini-32gb-wifi.html</t>
+  </si>
+  <si>
+    <t>VGA 11117</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel 11118</t>
+  </si>
+  <si>
+    <t>SangPH444hhhh15</t>
+  </si>
+  <si>
+    <t>SonyVaioVGNFW4807</t>
+  </si>
+  <si>
+    <t>SangPH444hhhh17</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,22 +508,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -532,7 +532,7 @@
         <v>170000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -552,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -572,19 +572,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -45,65 +45,335 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>8888 x 333</t>
-  </si>
-  <si>
-    <t>555x 555</t>
-  </si>
-  <si>
-    <t>Intel 5555555556555</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.thegioididong.com/</t>
-  </si>
-  <si>
-    <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core vvvvv2</t>
-  </si>
-  <si>
-    <t>HDD, 500 GB</t>
-  </si>
-  <si>
-    <t>intel Centrino 2</t>
-  </si>
-  <si>
-    <t>ATI Radeon 512</t>
-  </si>
-  <si>
-    <t>1600 x900</t>
-  </si>
-  <si>
-    <t>http://www.laptopgiahuy.com/ipad-48/1696/apple---ipad-mini-32gb-wifi.html</t>
-  </si>
-  <si>
-    <t>VGA 11117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel 11118</t>
-  </si>
-  <si>
-    <t>SangPH444hhhh15</t>
-  </si>
-  <si>
-    <t>SonyVaioVGNFW4807</t>
-  </si>
-  <si>
-    <t>SangPH444hhhh17</t>
+    <t>Sony Vaio Multi Flip Fit 14A SVF14N16SGS</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130470259708149666.jpg</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/</t>
+  </si>
+  <si>
+    <t>Sony Vaio SVT14127</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130484076610255395.jpeg</t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4000 upto 1649MB</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/14n26.jpg</t>
+  </si>
+  <si>
+    <t>LENOVO IDEAPAD S210 (59389595)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/lenovo-ideapad-s210.jpg</t>
+  </si>
+  <si>
+    <t>500GB </t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad G400 (59375061)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/5061.jpg</t>
+  </si>
+  <si>
+    <t>500GB</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/lenovo-laptop-g40-cover-zoom-8.jpg</t>
+  </si>
+  <si>
+    <t>Lenovo S410P ( 59409051)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/09051.jpg</t>
+  </si>
+  <si>
+    <t>Intel(R) Pentium 3556U </t>
+  </si>
+  <si>
+    <t>LENOVO G400s </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130300749977618625.jpg</t>
+  </si>
+  <si>
+    <t>LENOVO G500S (59409052)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/g500s.jpg</t>
+  </si>
+  <si>
+    <t>LENOVO G410</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/g410.jpg</t>
+  </si>
+  <si>
+    <t>LENOVO IDEAPAD S210 (59402712)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/lenovo-ideapad-s211.jpg</t>
+  </si>
+  <si>
+    <t>Asus K450LA - WX040D </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k450cc-wx263d.jpg</t>
+  </si>
+  <si>
+    <t>Asus K550LAV - XX410D</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/ASUS%20K550-bk0.jpg</t>
+  </si>
+  <si>
+    <t>Core(TM) i5 - 4210U</t>
+  </si>
+  <si>
+    <t>ASUS K551LA XX216D</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k551lb3.jpg</t>
+  </si>
+  <si>
+    <t>1TB </t>
+  </si>
+  <si>
+    <t>Asus K451LA - WX089D</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k451%203.jpg</t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4400</t>
+  </si>
+  <si>
+    <t>ASUS K551LB-XX276D</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k551.jpg</t>
+  </si>
+  <si>
+    <t>ASUS K451LN-WX080D</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k451.jpg</t>
+  </si>
+  <si>
+    <t>ASUS K450CA-WX210</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/k450.jpg</t>
+  </si>
+  <si>
+    <t>DELL Inspiron N3542 (DND6X4)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/Dell_3548.jpg</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15R N5537 (2NP1W2)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130190352397879888.jpg</t>
+  </si>
+  <si>
+    <t>DELL Inspiron N3542 (DND6X5)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/Dell_3550.jpg</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7737 (MNWWF1)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130483169488120976.jpg</t>
+  </si>
+  <si>
+    <t>MacBook Pro 17 A1297</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130162576845717155.jpg</t>
+  </si>
+  <si>
+    <t>Acer Aspire E1-471G-3324G50Mnks</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130114201292125443.jpg</t>
+  </si>
+  <si>
+    <t>Acer Aspire V5-471 NX.m3ssv</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130114200998828668.jpg</t>
+  </si>
+  <si>
+    <t>Lenovo G40-70 (5941-4338)</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/chi-tiet-san-pham/1653/sony-vaio-multi-flip-fit-14a-svf14n16sgs-i5-4200u-4gb-1tb-touch-win8-.htm</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/chi-tiet-san-pham/1302/sony-vaio-svt14127-core-i7-3537u-4gb-500gb-24g-ssd-touch.htm</t>
+  </si>
+  <si>
+    <t>Sony Vaio Multi Flip Fit 14A SVF14N26SGS1</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4930K</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5-2550K </t>
+  </si>
+  <si>
+    <t>Intel Core i3-3240</t>
+  </si>
+  <si>
+    <t>Intel Core i3-3240 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-875K </t>
+  </si>
+  <si>
+    <t>AMD FX-8300</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Quad  Q9300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i3-2350M </t>
+  </si>
+  <si>
+    <t>Intel Core i7-2670QM</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3450</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3570K</t>
+  </si>
+  <si>
+    <t>Intel Core i5  I5-750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i3-550 </t>
+  </si>
+  <si>
+    <t>Intel Core i7-4900MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-3970X Extreme Edition </t>
+  </si>
+  <si>
+    <t>Intel Core i7-4820K</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4960X</t>
+  </si>
+  <si>
+    <t>AMD Radeon R9 290X</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7870 XT</t>
+  </si>
+  <si>
+    <t>ATI Radeon HD 5850</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 750M</t>
+  </si>
+  <si>
+    <t>ATI Mobility Radeon HD 5870</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7640G</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 6550D</t>
+  </si>
+  <si>
+    <t>AMD FirePro V4900</t>
+  </si>
+  <si>
+    <t>ATI FirePro V4800</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7690M</t>
+  </si>
+  <si>
+    <t>NVIDIA NVS 5400M</t>
+  </si>
+  <si>
+    <t>Intel Iris Graphics 5100 Mobile</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 5000</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7540D</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 8970M</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 6970M / 6990M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 650 Ti Boost</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7770</t>
+  </si>
+  <si>
+    <t>320G</t>
+  </si>
+  <si>
+    <t>750 GB</t>
+  </si>
+  <si>
+    <t>640GB</t>
+  </si>
+  <si>
+    <t>14.0''</t>
+  </si>
+  <si>
+    <t>13.3"</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>6GB</t>
+  </si>
+  <si>
+    <t>8GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +388,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF495456"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -447,29 +724,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -497,106 +776,810 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3">
+        <v>12490000</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4">
+        <v>13490000</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5">
+        <v>15490000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6">
+        <v>11490000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7">
+        <v>10490000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8">
+        <v>12490000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9">
+        <v>16490000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10">
+        <v>11490000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11">
+        <v>12490000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>13490000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13">
+        <v>13490000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <v>13490000</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15">
+        <v>13490000</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16">
+        <v>13490000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17">
+        <v>13490000</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <v>13490000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19">
+        <v>13490000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>170000</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>13490000</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21">
+        <v>13490000</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>111111</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1111111</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>13490000</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>13490000</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24">
+        <v>13490000</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>13490000</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26">
+        <v>13490000</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27">
+        <v>13490000</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -604,15 +1587,13 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="J3:J27" r:id="rId1" display="http://laptopno1.com/"/>
+    <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="J3" r:id="rId3"/>
     <hyperlink ref="J4" r:id="rId4"/>
-    <hyperlink ref="J5" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -51,9 +51,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Dell Vostro V5560B (P34F001)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/39/f8/6e/39f86e98c255d2f395791b10712a6849_olm1372652169.jpg</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-V5560B-P34F001/</t>
   </si>
   <si>
-    <t>Dell Insprion 15 3542 (DND6X3 BLACK)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/63/c2/93/63c2935a7450f0ed198e073bd2f005aa_dell_3542-1.jpg</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Insprion-15-3542-DND6X3-BLACK/</t>
   </si>
   <si>
-    <t>Dell Inspiron N3521I (P28F001-TI32500)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/2b/47/42/2b474253768d7c6caa9f0ee975363f9d_dell-inspiron-n3521-front.jpg</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Inspiron-N3521I-P28F001TI32500/</t>
   </si>
   <si>
-    <t>DELL Inspiron 15 3537 52GNP4</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/ef/3c/a6/ef3ca62be3dd11e88980b9cb4e67ed8f_abcv.jpg</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/DELL-Inspiron-15-3537-52GNP4/</t>
   </si>
   <si>
-    <t>Dell Inspiron 15-N3537 (HSW15V15012133)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d6/54/58/d654581f7757db8f0c68b13394b12b1d_5138_115.jpg</t>
   </si>
   <si>
@@ -135,9 +120,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Inspiron-15N3537-HSW15V15012133/</t>
   </si>
   <si>
-    <t>Dell Vostro 2421 W522104 Black</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/55/52/10/555210f11d513d05342e985e044e2c34_laptop-dell-vostro-2421-w522104.jpg</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-2421-W522104-Black/</t>
   </si>
   <si>
-    <t>Dell Vostro 3550 4G</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/cb/0e/57/cb0e576ff5aaccb3c69e65cf832bb873_OriginalPng_thumbnail_560_420.png</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-3550-4G/</t>
   </si>
   <si>
-    <t>Dell Vostro 2420 - V522134 - Grey</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/dd/e7/15/dde7155861eb59169b1d7fb97ff18fbf_dell-vostro-2420-53234g50g_clip_image002_thumbnail_560_420.jpg</t>
   </si>
   <si>
@@ -186,9 +162,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-2420-V522134-Grey/</t>
   </si>
   <si>
-    <t>Laptop HP 15 - D102TX (G2G91PA)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/c7/ce/b2/c7ceb216b56097ebdec29b4b1a42f76d_1333670322159996684.jpg</t>
   </si>
   <si>
@@ -198,9 +171,6 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/Laptop-HP-15-D102TX-G2G91PA/</t>
   </si>
   <si>
-    <t>HP Pavilion 14 - R006TU (G8D71PA)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/1b/cc/31/1bcc31672d319ca23a894c588310d59b_HP%20Pavilion%20TouchSmart%2014-b170us%20Ultrabook.jpg</t>
   </si>
   <si>
@@ -213,22 +183,46 @@
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-14-R006TU-G8D71PA/</t>
   </si>
   <si>
-    <t>HP Pavilion 14 N237TU (G4W46PA)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d2/47/25/d24725adef7088d88b85735b35a0ea9e_8147_pavilion_14_2014-sS.jpg</t>
   </si>
   <si>
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-14-N237TU-G4W46PA/</t>
   </si>
   <si>
-    <t>HP Pavilion 15-N233TU (G4W48PA)</t>
-  </si>
-  <si>
     <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d3/c3/d1/d3c3d1035e60ee8554a7b57548355794_14305_hp_pavilion_15_e022tx.png</t>
   </si>
   <si>
     <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-15N233TU-G4W48PA/</t>
+  </si>
+  <si>
+    <t>Dell Insprion 15 3542 (DND6X3 BLACK)21312</t>
+  </si>
+  <si>
+    <t>Dell Inspiron N3521I (P28F001-TI32500)312312</t>
+  </si>
+  <si>
+    <t>DELL Inspiron 15 3537 52GNP4312312</t>
+  </si>
+  <si>
+    <t>Dell Vostro 2421 W522104 Black12312</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15-N3537 (HSW15V15012133)12</t>
+  </si>
+  <si>
+    <t>Dell Vostro 2420 - V522134 - Grey1</t>
+  </si>
+  <si>
+    <t>Laptop HP 15 - D102TX (G2G91PA)1</t>
+  </si>
+  <si>
+    <t>HP Pavilion 14 N237TU (G4W46PA3)</t>
+  </si>
+  <si>
+    <t>HP Pavilion 15-N233TU (G4W48PA4)</t>
+  </si>
+  <si>
+    <t>Dell Vostro V5560B (P34F001123123)</t>
   </si>
 </sst>
 </file>
@@ -299,12 +293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,12 +604,12 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -624,14 +618,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -669,32 +663,32 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="4">
+        <v>15490000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="5">
-        <v>15490000</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,31 +696,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5">
+        <v>12990000</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6">
-        <v>12990000</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,95 +728,92 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="5">
+        <v>9990000</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="6">
-        <v>9990000</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
       <c r="I6">
         <v>12890000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>12990000</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,63 +821,61 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>11990000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>13990000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,127 +883,125 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="6">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5">
         <v>9490000</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
       </c>
       <c r="I11">
         <v>13490000</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>7690000</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>65</v>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="6">
+        <v>16</v>
+      </c>
+      <c r="I13" s="5">
         <v>12490000</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,31 +1009,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
         <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
       </c>
       <c r="I14">
         <v>12490000</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1061,8 +1048,8 @@
     <hyperlink ref="C11" r:id="rId5"/>
     <hyperlink ref="C12" r:id="rId6"/>
     <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="J7" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/ThửLưuLaptop.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
   <si>
     <t xml:space="preserve">Danh sách máy tính </t>
   </si>
@@ -51,185 +51,263 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/39/f8/6e/39f86e98c255d2f395791b10712a6849_olm1372652169.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i5-3230M </t>
-  </si>
-  <si>
-    <t>Nvidia Geforce GT 730M 2GB</t>
-  </si>
-  <si>
-    <t>1TB SATA</t>
-  </si>
-  <si>
-    <t>15.6" HD LED</t>
-  </si>
-  <si>
     <t>4GB DDR3</t>
   </si>
   <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-V5560B-P34F001/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/63/c2/93/63c2935a7450f0ed198e073bd2f005aa_dell_3542-1.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i5-4210U</t>
-  </si>
-  <si>
-    <t>Intel HD Graphics 4400 Mobile</t>
-  </si>
-  <si>
-    <t>500GB SATA 5400rpm</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Insprion-15-3542-DND6X3-BLACK/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/2b/47/42/2b474253768d7c6caa9f0ee975363f9d_dell-inspiron-n3521-front.jpg</t>
-  </si>
-  <si>
     <t>Intel Core i3-3217U</t>
   </si>
   <si>
-    <t>Intel HD Gracphics 4000</t>
-  </si>
-  <si>
-    <t>2GB DDR3</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Inspiron-N3521I-P28F001TI32500/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/ef/3c/a6/ef3ca62be3dd11e88980b9cb4e67ed8f_abcv.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i5-4200U</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/DELL-Inspiron-15-3537-52GNP4/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d6/54/58/d654581f7757db8f0c68b13394b12b1d_5138_115.jpg</t>
-  </si>
-  <si>
-    <t>AMD Radeon HD 8670M 1GB</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Inspiron-15N3537-HSW15V15012133/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/55/52/10/555210f11d513d05342e985e044e2c34_laptop-dell-vostro-2421-w522104.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i5-3337U </t>
-  </si>
-  <si>
-    <t>Intel HD Graphics 4000</t>
-  </si>
-  <si>
-    <t>14.0" LED HD (1366 x 768)</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-2421-W522104-Black/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/cb/0e/57/cb0e576ff5aaccb3c69e65cf832bb873_OriginalPng_thumbnail_560_420.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i3-2310M </t>
-  </si>
-  <si>
-    <t>Intel HD 3000</t>
-  </si>
-  <si>
-    <t>15.6 " HD LED</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-3550-4G/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/dd/e7/15/dde7155861eb59169b1d7fb97ff18fbf_dell-vostro-2420-53234g50g_clip_image002_thumbnail_560_420.jpg</t>
-  </si>
-  <si>
     <t>Intel Core i3-3110M</t>
   </si>
   <si>
-    <t>14" HD LED 1366 x 768</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,Dell/Dell-Vostro-2420-V522134-Grey/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/c7/ce/b2/c7ceb216b56097ebdec29b4b1a42f76d_1333670322159996684.jpg</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce 820M 2GB</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/Laptop-HP-15-D102TX-G2G91PA/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/1b/cc/31/1bcc31672d319ca23a894c588310d59b_HP%20Pavilion%20TouchSmart%2014-b170us%20Ultrabook.jpg</t>
-  </si>
-  <si>
-    <t>Intel Pentium N3520</t>
-  </si>
-  <si>
     <t>Intel HD Graphics</t>
   </si>
   <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-14-R006TU-G8D71PA/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d2/47/25/d24725adef7088d88b85735b35a0ea9e_8147_pavilion_14_2014-sS.jpg</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-14-N237TU-G4W46PA/</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/getfiles/Temp_FileManagement/PublishedFolder/d3/c3/d1/d3c3d1035e60ee8554a7b57548355794_14305_hp_pavilion_15_e022tx.png</t>
-  </si>
-  <si>
-    <t>https://viettelstore.vn/Home/San-pham,Laptop/Hang-san-xuat,HP/HP-Pavilion-15N233TU-G4W48PA/</t>
-  </si>
-  <si>
-    <t>Dell Insprion 15 3542 (DND6X3 BLACK)21312</t>
-  </si>
-  <si>
-    <t>Dell Inspiron N3521I (P28F001-TI32500)312312</t>
-  </si>
-  <si>
-    <t>DELL Inspiron 15 3537 52GNP4312312</t>
-  </si>
-  <si>
-    <t>Dell Vostro 2421 W522104 Black12312</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 15-N3537 (HSW15V15012133)12</t>
-  </si>
-  <si>
-    <t>Dell Vostro 2420 - V522134 - Grey1</t>
-  </si>
-  <si>
-    <t>Laptop HP 15 - D102TX (G2G91PA)1</t>
-  </si>
-  <si>
-    <t>HP Pavilion 14 N237TU (G4W46PA3)</t>
-  </si>
-  <si>
-    <t>HP Pavilion 15-N233TU (G4W48PA4)</t>
-  </si>
-  <si>
-    <t>Dell Vostro V5560B (P34F001123123)</t>
+    <t>FUJITSU LH 531</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130204590649077068.jpg</t>
+  </si>
+  <si>
+    <t>GE70 2PE 096 XVN</t>
+  </si>
+  <si>
+    <t>NVIDIA  GeForce GT 740M</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>1920 x 1080</t>
+  </si>
+  <si>
+    <t>8 GB DDR3</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/</t>
+  </si>
+  <si>
+    <t>Toshiba Qosmio X70</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4700MQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA GeForce GTX 770M </t>
+  </si>
+  <si>
+    <t>750GB</t>
+  </si>
+  <si>
+    <t>4 GB DDR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiba Portege Z930-2036 (PT234L-07905)  </t>
+  </si>
+  <si>
+    <t>Intel Core i7-3687U</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel HD Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 GB SSD </t>
+  </si>
+  <si>
+    <t>1366 x 768</t>
+  </si>
+  <si>
+    <t>6GB DDR3</t>
+  </si>
+  <si>
+    <t>FUJITSU LH 532</t>
+  </si>
+  <si>
+    <t>Intel core i3-2328M</t>
+  </si>
+  <si>
+    <t>500 GB</t>
+  </si>
+  <si>
+    <t>14.1" </t>
+  </si>
+  <si>
+    <t>2 GB DDR3 </t>
+  </si>
+  <si>
+    <t>FUJITSU P771</t>
+  </si>
+  <si>
+    <t>Intel Core™i3-2310M</t>
+  </si>
+  <si>
+    <t> Intel HD 3000 series</t>
+  </si>
+  <si>
+    <t>500GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1” </t>
+  </si>
+  <si>
+    <t>2G DDR3</t>
+  </si>
+  <si>
+    <t>FUJITSU LIFEBOOK LH 531</t>
+  </si>
+  <si>
+    <t>Intel Core i3-2350M</t>
+  </si>
+  <si>
+    <t>2 GB DDR3</t>
+  </si>
+  <si>
+    <t>FUJITSU SH761 </t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® 1GB VRAM</t>
+  </si>
+  <si>
+    <t>640GB</t>
+  </si>
+  <si>
+    <t>13"</t>
+  </si>
+  <si>
+    <t>4G DDR3 </t>
+  </si>
+  <si>
+    <t>Toshiba Portege Z930-2037</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i7-3687U</t>
+  </si>
+  <si>
+    <t> Intel HD Graphics</t>
+  </si>
+  <si>
+    <t>128 GB SSD</t>
+  </si>
+  <si>
+    <t>13.3”</t>
+  </si>
+  <si>
+    <t>Gigabyte Ultrabook U2440N</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-3317U </t>
+  </si>
+  <si>
+    <t> 1GB Geforce 630M GT Graphics [HDMI, VGA] + VGA Intel HD 4000 series</t>
+  </si>
+  <si>
+    <t>14"</t>
+  </si>
+  <si>
+    <t>Samsung Series 3 (NP300E4X-A06VN)</t>
+  </si>
+  <si>
+    <t>Samsung Series 5 NP535U3X-A02VN AMD </t>
+  </si>
+  <si>
+    <t>Dual-Core A6-4455M</t>
+  </si>
+  <si>
+    <t>AMD Mobility Radeon HD 7500G 1GB </t>
+  </si>
+  <si>
+    <t>13.3" </t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 14E SVF14328SGW </t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-4200U</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® GT 740M 1GB NVIDIA® Optimus™ / Intel® HD Graphics 4400</t>
+  </si>
+  <si>
+    <t>4GB DDR3L</t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 15E SVF15328SG </t>
+  </si>
+  <si>
+    <t>Core(TM) i5-4200U </t>
+  </si>
+  <si>
+    <t>15.5"</t>
+  </si>
+  <si>
+    <t>4 GB DDR3L</t>
+  </si>
+  <si>
+    <t>Sony Vaio SVS13132CVW </t>
+  </si>
+  <si>
+    <t>Intel Core i5-3230M </t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4000</t>
+  </si>
+  <si>
+    <t>500 GB </t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 15 SVF15A13SG i5 3337U</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-3337U</t>
+  </si>
+  <si>
+    <t> NVIDIA® GeForce® GT 735M 2 GB DDR3 with Optimus™ / Intel® HD Graphics 4000</t>
+  </si>
+  <si>
+    <t>750GB </t>
+  </si>
+  <si>
+    <t>Sony VAIO FIT 15E SVF1521BYGB </t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4000 upto 1649MB </t>
+  </si>
+  <si>
+    <t>320 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony vaio Fit 14E SVF1421DSGW/B </t>
+  </si>
+  <si>
+    <t>Intel Core i3-3217U </t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4000 upto 1649MB</t>
+  </si>
+  <si>
+    <t> 500GB</t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 14E SVF1421QSGB</t>
+  </si>
+  <si>
+    <t>Intel® Core™ i3-3217U</t>
+  </si>
+  <si>
+    <t>750 GB</t>
+  </si>
+  <si>
+    <t>Sony vaio Fit 14E SVF1421DSGW/B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,22 +328,6 @@
       <color rgb="FF495456"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,15 +351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -601,15 +658,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -618,14 +675,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -659,36 +716,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4">
-        <v>15490000</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>27999000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -696,28 +753,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5">
-        <v>12990000</v>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>10699000</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
@@ -728,92 +785,95 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="5">
-        <v>9990000</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>12599000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>12890000</v>
+        <v>14490000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>15899000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,61 +881,63 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I8">
-        <v>11990000</v>
+        <v>14490000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I9">
-        <v>13990000</v>
+        <v>10790000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -883,157 +945,410 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="5">
-        <v>9490000</v>
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>14490000</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>13490000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
+        <v>14490000</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I12">
-        <v>7690000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>14490000</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5">
-        <v>12490000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>14490000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>14490000</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>14490000</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16">
+        <v>14490000</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>14490000</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18">
+        <v>14490000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19">
+        <v>14490000</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <v>14490000</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>14490000</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>12490000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1041,18 +1356,15 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3:J14" r:id="rId1" display="http://laptopno1.com/"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="J10" r:id="rId7"/>
-    <hyperlink ref="J7" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4:J21" r:id="rId3" display="http://laptopno1.com/"/>
+    <hyperlink ref="C4:C21" r:id="rId4" display="http://laptopno1.com/images/Products/130204590649077068.jpg"/>
+    <hyperlink ref="J22" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
